--- a/RS205kutuWorkspace/test_files/単体テスト項目表_佐々木.xlsx
+++ b/RS205kutuWorkspace/test_files/単体テスト項目表_佐々木.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrrr7\Downloads\使うもの\ソフトウェア工学\各種テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrrr7\Downloads\使うもの\ソフトウェア工学\各種テスト\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC74CE8-1FC7-4B93-AA99-28FCF28E464E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A434004E-47F4-4A76-AC40-4E834F784D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_review" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="49">
   <si>
     <t>テ  ス  ト  項  目  表</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>運用テスト</t>
-  </si>
-  <si>
-    <t>管理番号　　　-　　　-　　　-</t>
   </si>
   <si>
     <t>通番</t>
@@ -102,10 +99,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>通番: 　 1/1</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -134,138 +127,12 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>送信ボタンを押下し入力内容がスタブに送信される</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ニュウリョクナイヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>コーディング規約が守られている</t>
     <rPh sb="6" eb="8">
       <t>キヤク</t>
     </rPh>
     <rPh sb="9" eb="10">
       <t>マモ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>マイページボタンを押下しスタブに遷移する</t>
-    <rPh sb="9" eb="11">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ログアウトボタンを押下しスタブに遷移する</t>
-    <rPh sb="9" eb="11">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>予約管理ボタンを押下しスタブに遷移する</t>
-    <rPh sb="0" eb="4">
-      <t>ヨヤクカンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>送信ボタンを押下し予約者名がスタブに送信される</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ヨヤクシャメイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>送信ボタンを押下し予約年・月・日・時間・分がスタブに送信される</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ヨヤクネン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>送信ボタンを押下し予約人数がスタブに送信される</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニンズウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>送信ボタンを押下しスタブモジュールが動作する</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>はいを押下しスタブモジュールが動作する</t>
-    <rPh sb="3" eb="5">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ドウサ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -377,12 +244,88 @@
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>管理番号 sasaki - 1</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>HTMLが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>CSSによるデザインが適用されている</t>
+    <rPh sb="11" eb="13">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ページタイトルが適切</t>
+    <rPh sb="8" eb="10">
+      <t>テキセツ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>管理番号 sasaki - 2</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>通番: 　 1/6</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>通番: 　 2/6</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>全画面表示される</t>
+    <rPh sb="0" eb="5">
+      <t>ゼンガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>通番: 　3/6</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>管理番号 sasaki - 3</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>管理番号 sasaki - 4</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>通番: 　 4/6</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>通番: 　 5/6</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>管理番号 sasaki - 6</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>管理番号 sasaki - 5</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>通番: 　 6/6</t>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -440,13 +383,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -924,16 +860,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
         </ext>
       </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -955,6 +891,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -986,18 +934,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1235,8 +1171,8 @@
   </sheetPr>
   <dimension ref="B1:R1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:M10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1255,13 +1191,14 @@
     <col min="12" max="12" width="10.08984375" customWidth="1"/>
     <col min="13" max="13" width="48.08984375" customWidth="1"/>
     <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="16" width="17.453125" customWidth="1"/>
+    <col min="15" max="15" width="26.36328125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
     <col min="17" max="18" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="36"/>
@@ -1283,8 +1220,8 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>18</v>
+      <c r="C3" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1306,67 +1243,67 @@
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -1375,21 +1312,21 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="C6" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
       <c r="P6" s="14"/>
@@ -1401,12 +1338,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
       <c r="F7" s="43" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -1426,12 +1363,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="37"/>
       <c r="F8" s="43" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -1451,12 +1388,12 @@
         <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
       <c r="F9" s="43" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -1476,20 +1413,20 @@
         <v>5</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+        <v>15</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="59"/>
+        <v>23</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="12"/>
       <c r="O10" s="13"/>
       <c r="P10" s="16"/>
@@ -1501,12 +1438,12 @@
         <v>6</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="37"/>
       <c r="F11" s="43" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
@@ -1526,12 +1463,12 @@
         <v>7</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="37"/>
       <c r="F12" s="43" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
@@ -1550,10 +1487,14 @@
       <c r="B13" s="15">
         <v>8</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="43"/>
+      <c r="C13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -1571,10 +1512,14 @@
       <c r="B14" s="15">
         <v>9</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
-      <c r="F14" s="43"/>
+      <c r="F14" s="43" t="s">
+        <v>40</v>
+      </c>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
@@ -1595,14 +1540,14 @@
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
       <c r="E15" s="37"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="48"/>
       <c r="N15" s="12"/>
       <c r="O15" s="13"/>
       <c r="P15" s="16"/>
@@ -1616,14 +1561,14 @@
       <c r="C16" s="35"/>
       <c r="D16" s="36"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="48"/>
       <c r="N16" s="12"/>
       <c r="O16" s="13"/>
       <c r="P16" s="16"/>
@@ -1635,8 +1580,8 @@
         <v>12</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="43"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
@@ -1656,9 +1601,9 @@
         <v>13</v>
       </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="43"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
@@ -1679,7 +1624,7 @@
       <c r="C19" s="35"/>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="43"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
@@ -1700,7 +1645,7 @@
       <c r="C20" s="35"/>
       <c r="D20" s="36"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -1721,7 +1666,7 @@
       <c r="C21" s="35"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="44"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
@@ -1931,14 +1876,14 @@
       <c r="C31" s="35"/>
       <c r="D31" s="36"/>
       <c r="E31" s="37"/>
-      <c r="F31" s="43"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
+      <c r="M31" s="36"/>
       <c r="N31" s="12"/>
       <c r="O31" s="17"/>
       <c r="P31" s="18"/>
@@ -1952,14 +1897,14 @@
       <c r="C32" s="35"/>
       <c r="D32" s="36"/>
       <c r="E32" s="37"/>
-      <c r="F32" s="43"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="36"/>
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
+      <c r="M32" s="36"/>
       <c r="N32" s="12"/>
       <c r="O32" s="20"/>
       <c r="P32" s="18"/>
@@ -1973,14 +1918,14 @@
       <c r="C33" s="35"/>
       <c r="D33" s="36"/>
       <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
       <c r="N33" s="22"/>
       <c r="O33" s="23"/>
       <c r="P33" s="24"/>
@@ -1992,14 +1937,11 @@
       <c r="C34" s="35"/>
       <c r="D34" s="36"/>
       <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
       <c r="N34" s="22"/>
       <c r="O34" s="25"/>
       <c r="P34" s="24"/>
@@ -2011,14 +1953,11 @@
       <c r="C35" s="39"/>
       <c r="D35" s="40"/>
       <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
       <c r="P35" s="29"/>
@@ -2028,11 +1967,11 @@
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
     </row>
@@ -2052,22 +1991,12 @@
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
     </row>
     <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3035,7 +2964,7 @@
     <row r="1003" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1004" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="62">
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B4:P4"/>
     <mergeCell ref="C5:E5"/>
@@ -3055,8 +2984,6 @@
     <mergeCell ref="F10:M10"/>
     <mergeCell ref="F11:M11"/>
     <mergeCell ref="F12:M12"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="F14:M14"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
@@ -3064,42 +2991,42 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F14:M14"/>
     <mergeCell ref="F15:M15"/>
     <mergeCell ref="F16:M16"/>
     <mergeCell ref="F17:M17"/>
     <mergeCell ref="F18:M18"/>
     <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="F21:M21"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="F21:M21"/>
     <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F23:M23"/>
-    <mergeCell ref="F24:M24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:M33"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="F24:M24"/>
     <mergeCell ref="F25:M25"/>
     <mergeCell ref="F26:M26"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="F28:M28"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="F32:M32"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="F33:M33"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F29:M29"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F30:M30"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3114,8 +3041,8 @@
   </sheetPr>
   <dimension ref="B1:R1004"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:M13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3134,13 +3061,14 @@
     <col min="12" max="12" width="10.08984375" customWidth="1"/>
     <col min="13" max="13" width="48.08984375" customWidth="1"/>
     <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="16" width="17.453125" customWidth="1"/>
+    <col min="15" max="15" width="26.36328125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
     <col min="17" max="18" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="36"/>
@@ -3162,8 +3090,8 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>18</v>
+      <c r="C3" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -3185,67 +3113,67 @@
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
+      <c r="B4" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -3254,21 +3182,21 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="C6" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
       <c r="P6" s="14"/>
@@ -3280,12 +3208,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
       <c r="F7" s="43" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -3305,12 +3233,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="37"/>
       <c r="F8" s="43" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -3330,12 +3258,12 @@
         <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
       <c r="F9" s="43" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -3355,12 +3283,12 @@
         <v>5</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="37"/>
       <c r="F10" s="43" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
@@ -3380,20 +3308,20 @@
         <v>6</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
+        <v>15</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="59"/>
+        <v>23</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
       <c r="N11" s="12"/>
       <c r="O11" s="13"/>
       <c r="P11" s="16"/>
@@ -3405,12 +3333,12 @@
         <v>7</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
+        <v>15</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
@@ -3430,12 +3358,12 @@
         <v>8</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="37"/>
       <c r="F13" s="43" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
@@ -3455,12 +3383,12 @@
         <v>9</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
       <c r="F14" s="43" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
@@ -3480,20 +3408,20 @@
         <v>10</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="37"/>
-      <c r="F15" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="59"/>
+      <c r="F15" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="12"/>
       <c r="O15" s="13"/>
       <c r="P15" s="16"/>
@@ -3504,14 +3432,10 @@
       <c r="B16" s="15">
         <v>11</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>16</v>
-      </c>
+      <c r="C16" s="35"/>
       <c r="D16" s="36"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="43" t="s">
-        <v>26</v>
-      </c>
+      <c r="F16" s="44"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
@@ -3574,14 +3498,14 @@
       <c r="C19" s="35"/>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="59"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="12"/>
       <c r="O19" s="17"/>
       <c r="P19" s="18"/>
@@ -3616,7 +3540,7 @@
       <c r="C21" s="35"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="44"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
@@ -3763,14 +3687,14 @@
       <c r="C28" s="35"/>
       <c r="D28" s="36"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="43"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
-      <c r="M28" s="37"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="12"/>
       <c r="O28" s="17"/>
       <c r="P28" s="18"/>
@@ -3784,35 +3708,35 @@
       <c r="C29" s="35"/>
       <c r="D29" s="36"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="43"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
-      <c r="M29" s="37"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="12"/>
       <c r="O29" s="17"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15">
         <v>25</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="37"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
       <c r="N30" s="12"/>
       <c r="O30" s="17"/>
       <c r="P30" s="18"/>
@@ -3823,17 +3747,14 @@
       <c r="B31" s="15">
         <v>26</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
       <c r="N31" s="12"/>
       <c r="O31" s="17"/>
       <c r="P31" s="18"/>
@@ -3844,17 +3765,14 @@
       <c r="B32" s="15">
         <v>27</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
       <c r="N32" s="12"/>
       <c r="O32" s="20"/>
       <c r="P32" s="18"/>
@@ -3865,17 +3783,14 @@
       <c r="B33" s="21">
         <v>28</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
       <c r="N33" s="22"/>
       <c r="O33" s="23"/>
       <c r="P33" s="24"/>
@@ -3884,17 +3799,14 @@
       <c r="B34" s="21">
         <v>29</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
       <c r="N34" s="22"/>
       <c r="O34" s="25"/>
       <c r="P34" s="24"/>
@@ -3903,66 +3815,23 @@
       <c r="B35" s="26">
         <v>30</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
       <c r="P35" s="29"/>
     </row>
     <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
     </row>
     <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
     </row>
     <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4930,7 +4799,7 @@
     <row r="1003" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1004" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="54">
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B4:P4"/>
     <mergeCell ref="C5:E5"/>
@@ -4975,26 +4844,16 @@
     <mergeCell ref="F24:M24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:M25"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:M30"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:M26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:M27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:M28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:M33"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5009,8 +4868,8 @@
   </sheetPr>
   <dimension ref="B1:R1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:M9"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5029,13 +4888,14 @@
     <col min="12" max="12" width="10.08984375" customWidth="1"/>
     <col min="13" max="13" width="48.08984375" customWidth="1"/>
     <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="16" width="17.453125" customWidth="1"/>
+    <col min="15" max="15" width="26.36328125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
     <col min="17" max="18" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="36"/>
@@ -5057,8 +4917,8 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>18</v>
+      <c r="C3" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -5080,67 +4940,67 @@
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
+      <c r="B4" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -5149,13 +5009,13 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="43" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
@@ -5175,12 +5035,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
       <c r="F7" s="43" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -5200,12 +5060,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="37"/>
       <c r="F8" s="43" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -5225,12 +5085,12 @@
         <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
       <c r="F9" s="43" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -5250,12 +5110,12 @@
         <v>5</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="37"/>
       <c r="F10" s="43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
@@ -5274,10 +5134,14 @@
       <c r="B11" s="15">
         <v>6</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="43"/>
+      <c r="C11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="43" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -5295,10 +5159,14 @@
       <c r="B12" s="15">
         <v>7</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="36"/>
       <c r="E12" s="37"/>
-      <c r="F12" s="43"/>
+      <c r="F12" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -5316,10 +5184,14 @@
       <c r="B13" s="15">
         <v>8</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="36"/>
       <c r="E13" s="37"/>
-      <c r="F13" s="43"/>
+      <c r="F13" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -5337,10 +5209,14 @@
       <c r="B14" s="15">
         <v>9</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
-      <c r="F14" s="43"/>
+      <c r="F14" s="43" t="s">
+        <v>40</v>
+      </c>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
@@ -5466,7 +5342,7 @@
       <c r="C20" s="35"/>
       <c r="D20" s="36"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -6881,7 +6757,7 @@
   <dimension ref="B1:R1004"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:M8"/>
+      <selection activeCell="F12" sqref="F12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6900,13 +6776,14 @@
     <col min="12" max="12" width="10.08984375" customWidth="1"/>
     <col min="13" max="13" width="48.08984375" customWidth="1"/>
     <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="16" width="17.453125" customWidth="1"/>
+    <col min="15" max="15" width="26.36328125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
     <col min="17" max="18" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="36"/>
@@ -6928,8 +6805,8 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>18</v>
+      <c r="C3" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -6951,67 +6828,67 @@
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
+      <c r="B4" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -7020,21 +6897,21 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="C6" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
       <c r="P6" s="14"/>
@@ -7046,12 +6923,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
       <c r="F7" s="43" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -7071,12 +6948,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="37"/>
       <c r="F8" s="43" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -7096,12 +6973,12 @@
         <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -7121,12 +6998,12 @@
         <v>5</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="37"/>
       <c r="F10" s="43" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
@@ -7146,12 +7023,12 @@
         <v>6</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="37"/>
       <c r="F11" s="43" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
@@ -7171,12 +7048,12 @@
         <v>7</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="37"/>
       <c r="F12" s="43" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
@@ -7240,7 +7117,7 @@
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
       <c r="E15" s="37"/>
-      <c r="F15" s="44"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -7261,7 +7138,7 @@
       <c r="C16" s="35"/>
       <c r="D16" s="36"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="44"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
@@ -7282,7 +7159,7 @@
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
       <c r="E17" s="37"/>
-      <c r="F17" s="43"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
@@ -7345,7 +7222,7 @@
       <c r="C20" s="35"/>
       <c r="D20" s="36"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -7366,7 +7243,7 @@
       <c r="C21" s="35"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="44"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
@@ -7534,14 +7411,14 @@
       <c r="C29" s="35"/>
       <c r="D29" s="36"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="43"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
-      <c r="M29" s="37"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="12"/>
       <c r="O29" s="17"/>
       <c r="P29" s="18"/>
@@ -7555,35 +7432,35 @@
       <c r="C30" s="35"/>
       <c r="D30" s="36"/>
       <c r="E30" s="37"/>
-      <c r="F30" s="43"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
-      <c r="M30" s="37"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="12"/>
       <c r="O30" s="17"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15">
         <v>26</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="12"/>
       <c r="O31" s="17"/>
       <c r="P31" s="18"/>
@@ -7594,17 +7471,14 @@
       <c r="B32" s="15">
         <v>27</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
       <c r="N32" s="12"/>
       <c r="O32" s="20"/>
       <c r="P32" s="18"/>
@@ -7615,17 +7489,14 @@
       <c r="B33" s="21">
         <v>28</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
       <c r="N33" s="22"/>
       <c r="O33" s="23"/>
       <c r="P33" s="24"/>
@@ -7634,17 +7505,14 @@
       <c r="B34" s="21">
         <v>29</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
       <c r="N34" s="22"/>
       <c r="O34" s="25"/>
       <c r="P34" s="24"/>
@@ -7653,66 +7521,31 @@
       <c r="B35" s="26">
         <v>30</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
       <c r="P35" s="29"/>
     </row>
     <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
     </row>
     <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
     </row>
     <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8680,7 +8513,7 @@
     <row r="1003" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1004" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="56">
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B4:P4"/>
     <mergeCell ref="C5:E5"/>
@@ -8727,24 +8560,16 @@
     <mergeCell ref="F25:M25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:M26"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:M31"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:M27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:M28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:M29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:M33"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8759,8 +8584,8 @@
   </sheetPr>
   <dimension ref="B1:R1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:M7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8779,13 +8604,14 @@
     <col min="12" max="12" width="10.08984375" customWidth="1"/>
     <col min="13" max="13" width="48.08984375" customWidth="1"/>
     <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="16" width="17.453125" customWidth="1"/>
+    <col min="15" max="15" width="26.36328125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
     <col min="17" max="18" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="36"/>
@@ -8807,8 +8633,8 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>18</v>
+      <c r="C3" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -8830,67 +8656,67 @@
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
+      <c r="B4" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -8899,11 +8725,11 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
+      <c r="C6" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="43" t="s">
         <v>29</v>
       </c>
@@ -8925,12 +8751,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
       <c r="F7" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -8950,12 +8776,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="37"/>
       <c r="F8" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -8975,12 +8801,12 @@
         <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
       <c r="F9" s="43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -8999,10 +8825,14 @@
       <c r="B10" s="15">
         <v>5</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="43"/>
+      <c r="C10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="43" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -9020,10 +8850,14 @@
       <c r="B11" s="15">
         <v>6</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="36"/>
       <c r="E11" s="37"/>
-      <c r="F11" s="43"/>
+      <c r="F11" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -9041,10 +8875,14 @@
       <c r="B12" s="15">
         <v>7</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="36"/>
       <c r="E12" s="37"/>
-      <c r="F12" s="43"/>
+      <c r="F12" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -9062,10 +8900,14 @@
       <c r="B13" s="15">
         <v>8</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="36"/>
       <c r="E13" s="37"/>
-      <c r="F13" s="43"/>
+      <c r="F13" s="43" t="s">
+        <v>40</v>
+      </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -9212,7 +9054,7 @@
       <c r="C20" s="35"/>
       <c r="D20" s="36"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -10626,8 +10468,8 @@
   </sheetPr>
   <dimension ref="B1:R1004"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:M12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10646,13 +10488,14 @@
     <col min="12" max="12" width="10.08984375" customWidth="1"/>
     <col min="13" max="13" width="48.08984375" customWidth="1"/>
     <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="16" width="17.453125" customWidth="1"/>
+    <col min="15" max="15" width="26.36328125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
     <col min="17" max="18" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="36"/>
@@ -10674,8 +10517,8 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>18</v>
+      <c r="C3" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -10697,67 +10540,67 @@
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
+      <c r="B4" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -10766,21 +10609,21 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
+      <c r="C6" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
       <c r="P6" s="14"/>
@@ -10792,12 +10635,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
       <c r="F7" s="43" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -10817,12 +10660,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="37"/>
       <c r="F8" s="43" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -10842,12 +10685,12 @@
         <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -10867,12 +10710,12 @@
         <v>5</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="37"/>
       <c r="F10" s="43" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
@@ -10892,12 +10735,12 @@
         <v>6</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="37"/>
       <c r="F11" s="43" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
@@ -10917,12 +10760,12 @@
         <v>7</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="37"/>
       <c r="F12" s="43" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
@@ -10986,7 +10829,7 @@
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
       <c r="E15" s="37"/>
-      <c r="F15" s="44"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -11007,7 +10850,7 @@
       <c r="C16" s="35"/>
       <c r="D16" s="36"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="44"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
@@ -11028,7 +10871,7 @@
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
       <c r="E17" s="37"/>
-      <c r="F17" s="43"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
@@ -11091,7 +10934,7 @@
       <c r="C20" s="35"/>
       <c r="D20" s="36"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
@@ -11112,7 +10955,7 @@
       <c r="C21" s="35"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="44"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
@@ -11280,14 +11123,14 @@
       <c r="C29" s="35"/>
       <c r="D29" s="36"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="43"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
-      <c r="M29" s="37"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="12"/>
       <c r="O29" s="17"/>
       <c r="P29" s="18"/>
@@ -11301,35 +11144,35 @@
       <c r="C30" s="35"/>
       <c r="D30" s="36"/>
       <c r="E30" s="37"/>
-      <c r="F30" s="43"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
-      <c r="M30" s="37"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="12"/>
       <c r="O30" s="17"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15">
         <v>26</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="12"/>
       <c r="O31" s="17"/>
       <c r="P31" s="18"/>
@@ -11340,17 +11183,14 @@
       <c r="B32" s="15">
         <v>27</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
       <c r="N32" s="12"/>
       <c r="O32" s="20"/>
       <c r="P32" s="18"/>
@@ -11361,17 +11201,14 @@
       <c r="B33" s="21">
         <v>28</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
       <c r="N33" s="22"/>
       <c r="O33" s="23"/>
       <c r="P33" s="24"/>
@@ -11380,17 +11217,14 @@
       <c r="B34" s="21">
         <v>29</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
       <c r="N34" s="22"/>
       <c r="O34" s="25"/>
       <c r="P34" s="24"/>
@@ -11399,66 +11233,31 @@
       <c r="B35" s="26">
         <v>30</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
       <c r="P35" s="29"/>
     </row>
     <row r="36" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
     </row>
     <row r="37" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
     </row>
     <row r="40" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12426,7 +12225,7 @@
     <row r="1003" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1004" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="56">
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B4:P4"/>
     <mergeCell ref="C5:E5"/>
@@ -12473,24 +12272,16 @@
     <mergeCell ref="F25:M25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:M26"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:M31"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:M27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:M28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:M29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:M34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:M35"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:M33"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
